--- a/forecast_summary_B0CMK1W2YX.xlsx
+++ b/forecast_summary_B0CMK1W2YX.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>1032.758801694793</v>
       </c>
       <c r="D2" t="n">
-        <v>1121.827297190714</v>
+        <v>1123.96600611207</v>
       </c>
       <c r="E2" t="n">
         <v>129</v>
@@ -511,6 +516,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C3" t="n">
         <v>1389.678553039727</v>
       </c>
       <c r="D3" t="n">
-        <v>1477.044537323868</v>
+        <v>1482.577139524474</v>
       </c>
       <c r="E3" t="n">
         <v>76</v>
@@ -547,6 +555,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>1306.153725665067</v>
       </c>
       <c r="D4" t="n">
-        <v>1395.321832315646</v>
+        <v>1394.151881619297</v>
       </c>
       <c r="E4" t="n">
         <v>81</v>
@@ -583,6 +594,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C5" t="n">
         <v>823.2968807677129</v>
       </c>
       <c r="D5" t="n">
-        <v>917.1963318628032</v>
+        <v>912.6757821717234</v>
       </c>
       <c r="E5" t="n">
         <v>65</v>
@@ -619,6 +633,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="n">
         <v>295.3299763468918</v>
       </c>
       <c r="D6" t="n">
-        <v>391.2641596901095</v>
+        <v>382.9755488653214</v>
       </c>
       <c r="E6" t="n">
         <v>71</v>
@@ -655,6 +672,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="n">
         <v>63.16113586541466</v>
       </c>
       <c r="D7" t="n">
-        <v>161.1753350467502</v>
+        <v>146.6339937228402</v>
       </c>
       <c r="E7" t="n">
         <v>77</v>
@@ -691,6 +711,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>153.9605899618696</v>
       </c>
       <c r="D8" t="n">
-        <v>235.4020846970868</v>
+        <v>237.7415449396129</v>
       </c>
       <c r="E8" t="n">
         <v>73</v>
@@ -727,6 +750,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>319.5919518209037</v>
       </c>
       <c r="D9" t="n">
-        <v>415.6740000042524</v>
+        <v>413.0680842428052</v>
       </c>
       <c r="E9" t="n">
         <v>72</v>
@@ -763,6 +789,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>341.8115919785724</v>
       </c>
       <c r="D10" t="n">
-        <v>435.1868974378056</v>
+        <v>434.5231295972921</v>
       </c>
       <c r="E10" t="n">
         <v>76</v>
@@ -799,6 +828,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>245.2513701603345</v>
       </c>
       <c r="D11" t="n">
-        <v>334.6241596299347</v>
+        <v>335.5208220431612</v>
       </c>
       <c r="E11" t="n">
         <v>111</v>
@@ -835,6 +867,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C12" t="n">
         <v>200.7064646728751</v>
       </c>
       <c r="D12" t="n">
-        <v>284.631854428787</v>
+        <v>292.7290474889271</v>
       </c>
       <c r="E12" t="n">
         <v>133</v>
@@ -871,6 +906,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C13" t="n">
         <v>280.3043863640436</v>
       </c>
       <c r="D13" t="n">
-        <v>371.1137505907157</v>
+        <v>372.3592025328961</v>
       </c>
       <c r="E13" t="n">
         <v>132</v>
@@ -907,6 +945,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C14" t="n">
         <v>377.6511844019241</v>
       </c>
       <c r="D14" t="n">
-        <v>461.0411392974669</v>
+        <v>470.2224576768807</v>
       </c>
       <c r="E14" t="n">
         <v>134</v>
@@ -943,6 +984,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>367.4944301251266</v>
       </c>
       <c r="D15" t="n">
-        <v>461.8242537182913</v>
+        <v>458.3025687095107</v>
       </c>
       <c r="E15" t="n">
         <v>135</v>
@@ -979,6 +1023,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" t="n">
         <v>274.450901144611</v>
       </c>
       <c r="D16" t="n">
-        <v>368.4359663791062</v>
+        <v>362.3162857893914</v>
       </c>
       <c r="E16" t="n">
         <v>135</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>231.9334278416866</v>
       </c>
       <c r="D17" t="n">
-        <v>326.0879056933969</v>
+        <v>320.958550548065</v>
       </c>
       <c r="E17" t="n">
         <v>136</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>301.0887346293467</v>
       </c>
       <c r="D18" t="n">
-        <v>392.0971439805613</v>
+        <v>393.7290600043947</v>
       </c>
       <c r="E18" t="n">
         <v>128</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>396.7094587430103</v>
       </c>
       <c r="D19" t="n">
-        <v>486.4207421393478</v>
+        <v>487.2834951927827</v>
       </c>
       <c r="E19" t="n">
         <v>131</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C20" t="n">
         <v>410.2263915617081</v>
       </c>
       <c r="D20" t="n">
-        <v>494.1115993312204</v>
+        <v>503.6591856399637</v>
       </c>
       <c r="E20" t="n">
         <v>139</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C21" t="n">
         <v>352.9594693988477</v>
       </c>
       <c r="D21" t="n">
-        <v>445.4205550872784</v>
+        <v>437.8222771918134</v>
       </c>
       <c r="E21" t="n">
         <v>127</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5457</t>
+          <t>5455</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
     </row>
